--- a/Project_CodeCrafter/Funcitonality_tests_11.02.xlsx
+++ b/Project_CodeCrafter/Funcitonality_tests_11.02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hajes\Downloads\Projektarbeit-Jessi (4)\Projektarbeit-Jessi\Project_CodeCrafter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hajes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E554B69-4E1B-44BC-97AC-A70DF48EF96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2645CF2-4FD2-4565-905E-73084F8E38F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4050" windowWidth="29040" windowHeight="15720" xr2:uid="{077A478C-1439-4943-B013-AA7C27FC12B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="85">
   <si>
     <t>Loreal</t>
   </si>
@@ -675,10 +675,10 @@
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="N49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="12" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="R69" sqref="R69"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,9 +1479,7 @@
       <c r="O15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
         <v>65</v>
       </c>
@@ -3387,18 +3385,6 @@
       <c r="N56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P56" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R56" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S56" s="4" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -3873,19 +3859,19 @@
       </c>
       <c r="P65" s="1">
         <f t="shared" ref="P65" si="2">COUNTA(P2:P64)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q65" s="1">
         <f t="shared" ref="Q65" si="3">COUNTA(Q2:Q64)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R65" s="1">
         <f t="shared" ref="R65" si="4">COUNTA(R2:R64)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S65" s="1">
         <f t="shared" ref="S65" si="5">COUNTA(S2:S64)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T65" s="1">
         <f t="shared" ref="T65" si="6">COUNTA(T2:T64)</f>
@@ -3953,19 +3939,19 @@
       </c>
       <c r="P66" s="3">
         <f t="shared" ref="P66" si="8">P65/$A65</f>
-        <v>0.79365079365079361</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q66" s="3">
         <f t="shared" ref="Q66" si="9">Q65/$A65</f>
-        <v>0.82539682539682535</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="R66" s="3">
         <f t="shared" ref="R66" si="10">R65/$A65</f>
-        <v>0.80952380952380953</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="S66" s="3">
         <f t="shared" ref="S66" si="11">S65/$A65</f>
-        <v>0.80952380952380953</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="T66" s="3">
         <f t="shared" ref="T66" si="12">T65/$A65</f>
